--- a/64-units/output_df_test.xlsx
+++ b/64-units/output_df_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,13 +464,13 @@
         <v>0.005383</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04034421965479851</v>
+        <v>-0.08947233110666275</v>
       </c>
       <c r="D2" t="n">
         <v>0.01039000138827146</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002573961184847083</v>
+        <v>0.009972485451328792</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>0.010766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0615534596145153</v>
+        <v>-0.2962596714496613</v>
       </c>
       <c r="D3" t="n">
         <v>0.07090817555180537</v>
       </c>
       <c r="E3" t="n">
-        <v>8.751071026738873e-05</v>
+        <v>0.1348122278716924</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>0.016149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1916155070066452</v>
+        <v>-0.3024299740791321</v>
       </c>
       <c r="D4" t="n">
         <v>0.1551886092794283</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001326918878029121</v>
+        <v>0.2094147678350957</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>0.021532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2760144770145416</v>
+        <v>-0.3036891520023346</v>
       </c>
       <c r="D5" t="n">
         <v>0.2194337569956537</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003201377877855784</v>
+        <v>0.2736575779185175</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>0.026915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3067590296268463</v>
+        <v>-0.2427846193313599</v>
       </c>
       <c r="D6" t="n">
         <v>0.2381569179248022</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004706249729979737</v>
+        <v>0.2313047622583203</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>0.032782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2937685251235962</v>
+        <v>-0.1306655406951904</v>
       </c>
       <c r="D7" t="n">
         <v>0.232077797519008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003805745872383499</v>
+        <v>0.1315827294187804</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>0.038648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2617015540599823</v>
+        <v>-0.03544219583272934</v>
       </c>
       <c r="D8" t="n">
         <v>0.2089625726146107</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002781400163895249</v>
+        <v>0.0597336908397979</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>0.044515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2259852737188339</v>
+        <v>0.005893283523619175</v>
       </c>
       <c r="D9" t="n">
         <v>0.1821374471894741</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00192263189134883</v>
+        <v>0.03106200522627666</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>0.050382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1930672377347946</v>
+        <v>0.03448902815580368</v>
       </c>
       <c r="D10" t="n">
         <v>0.1570633671496917</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001296278697108838</v>
+        <v>0.01502446857978858</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>0.056248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1629428416490555</v>
+        <v>0.07859357446432114</v>
       </c>
       <c r="D11" t="n">
         <v>0.1351141714939549</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007744348826013853</v>
+        <v>0.003194577888586246</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>0.062625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1350940614938736</v>
+        <v>0.1275899261236191</v>
       </c>
       <c r="D12" t="n">
         <v>0.1151924094307864</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003960757548401828</v>
+        <v>0.0001536984201490649</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>0.06900299999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1146426126360893</v>
+        <v>0.1475553661584854</v>
       </c>
       <c r="D13" t="n">
         <v>0.09898995712650538</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002450056245017087</v>
+        <v>0.002358598954443528</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>0.07537999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09781643003225327</v>
+        <v>0.1543744057416916</v>
       </c>
       <c r="D14" t="n">
         <v>0.08624194975175113</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001339685937637327</v>
+        <v>0.004642031559221173</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>0.08175700000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08448762446641922</v>
+        <v>0.1599527150392532</v>
       </c>
       <c r="D15" t="n">
         <v>0.07618502156745835</v>
       </c>
       <c r="E15" t="n">
-        <v>6.893321489783344e-05</v>
+        <v>0.007017026469584587</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>0.088134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07308069616556168</v>
+        <v>0.1597113907337189</v>
       </c>
       <c r="D16" t="n">
         <v>0.06782424144092992</v>
       </c>
       <c r="E16" t="n">
-        <v>2.763031627210346e-05</v>
+        <v>0.008443248205155284</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>0.09504700000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06109854206442833</v>
+        <v>0.1575364619493484</v>
       </c>
       <c r="D17" t="n">
         <v>0.06047524504006395</v>
       </c>
       <c r="E17" t="n">
-        <v>3.88499180581491e-07</v>
+        <v>0.009420879827911175</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>0.10196</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05124513432383537</v>
+        <v>0.1529501527547836</v>
       </c>
       <c r="D18" t="n">
         <v>0.05449483680408607</v>
       </c>
       <c r="E18" t="n">
-        <v>1.056056621014756e-05</v>
+        <v>0.009693449238951683</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>0.10887</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04535179957747459</v>
+        <v>0.1502421051263809</v>
       </c>
       <c r="D19" t="n">
         <v>0.04969382716130066</v>
       </c>
       <c r="E19" t="n">
-        <v>1.885320353870645e-05</v>
+        <v>0.01010995620174304</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>0.11578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04076394066214561</v>
+        <v>0.1495852470397949</v>
       </c>
       <c r="D20" t="n">
         <v>0.04578871878359028</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5248395169749e-05</v>
+        <v>0.01077371927804109</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>0.1227</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03769009187817574</v>
+        <v>0.1435264945030212</v>
       </c>
       <c r="D21" t="n">
         <v>0.04248230373476976</v>
       </c>
       <c r="E21" t="n">
-        <v>2.296529447848033e-05</v>
+        <v>0.0102099284880108</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>0.13017</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03464736789464951</v>
+        <v>0.1408619284629822</v>
       </c>
       <c r="D22" t="n">
         <v>0.03932673220874238</v>
       </c>
       <c r="E22" t="n">
-        <v>2.189645038400588e-05</v>
+        <v>0.01030939607838699</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>0.13764</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0318930372595787</v>
+        <v>0.147673487663269</v>
       </c>
       <c r="D23" t="n">
         <v>0.03667430244907003</v>
       </c>
       <c r="E23" t="n">
-        <v>2.286049681224152e-05</v>
+        <v>0.01232081911821606</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>0.14511</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02982667088508606</v>
+        <v>0.1616075187921524</v>
       </c>
       <c r="D24" t="n">
         <v>0.03444053659203948</v>
       </c>
       <c r="E24" t="n">
-        <v>2.128775676180079e-05</v>
+        <v>0.01617144136188383</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>0.15258</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02818917110562325</v>
+        <v>0.174804225564003</v>
       </c>
       <c r="D25" t="n">
         <v>0.03254163445349085</v>
       </c>
       <c r="E25" t="n">
-        <v>1.894393719453087e-05</v>
+        <v>0.02023864482947677</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>0.16005</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02401939406991005</v>
+        <v>0.1894509494304657</v>
       </c>
       <c r="D26" t="n">
         <v>0.03087508613872102</v>
       </c>
       <c r="E26" t="n">
-        <v>4.700051374235765e-05</v>
+        <v>0.02514630441872209</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>0.16809</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02519302815198898</v>
+        <v>0.2014249861240387</v>
       </c>
       <c r="D27" t="n">
         <v>0.02917532250083574</v>
       </c>
       <c r="E27" t="n">
-        <v>1.585866828085682e-05</v>
+        <v>0.02966994661830657</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>0.17614</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02035227790474892</v>
+        <v>0.2127598524093628</v>
       </c>
       <c r="D28" t="n">
         <v>0.02768193105790962</v>
       </c>
       <c r="E28" t="n">
-        <v>5.372381534563866e-05</v>
+        <v>0.03425383697177469</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>0.18418</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01891776546835899</v>
+        <v>0.2258783429861069</v>
       </c>
       <c r="D29" t="n">
         <v>0.02636559377428162</v>
       </c>
       <c r="E29" t="n">
-        <v>5.547014647450232e-05</v>
+        <v>0.03980533709806067</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>0.19223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01836080104112625</v>
+        <v>0.237654447555542</v>
       </c>
       <c r="D30" t="n">
         <v>0.02522142912739482</v>
       </c>
       <c r="E30" t="n">
-        <v>4.706821773809713e-05</v>
+        <v>0.04512778731849351</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>0.20028</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01714770868420601</v>
+        <v>0.2445318400859833</v>
       </c>
       <c r="D31" t="n">
         <v>0.02422735568118357</v>
       </c>
       <c r="E31" t="n">
-        <v>5.012140160181341e-05</v>
+        <v>0.04853406584886464</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>0.20891</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01579628139734268</v>
+        <v>0.2519738674163818</v>
       </c>
       <c r="D32" t="n">
         <v>0.02321902946616803</v>
       </c>
       <c r="E32" t="n">
-        <v>5.509718889325043e-05</v>
+        <v>0.05232877588562858</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>0.21755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01454305183142424</v>
+        <v>0.2636033594608307</v>
       </c>
       <c r="D33" t="n">
         <v>0.02229139752729517</v>
       </c>
       <c r="E33" t="n">
-        <v>6.003686102272163e-05</v>
+        <v>0.05823146297221209</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>0.22618</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01347001176327467</v>
+        <v>0.2735651731491089</v>
       </c>
       <c r="D34" t="n">
         <v>0.02142267097375047</v>
       </c>
       <c r="E34" t="n">
-        <v>6.324478851796558e-05</v>
+        <v>0.06357584140325064</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>0.23482</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01239152904599905</v>
+        <v>0.2869912385940552</v>
       </c>
       <c r="D35" t="n">
         <v>0.02061125282591447</v>
       </c>
       <c r="E35" t="n">
-        <v>6.756385901810702e-05</v>
+        <v>0.07095829681783485</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>0.24345</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01130019035190344</v>
+        <v>0.2973729074001312</v>
       </c>
       <c r="D36" t="n">
         <v>0.01985002784573097</v>
       </c>
       <c r="E36" t="n">
-        <v>7.309972117085906e-05</v>
+        <v>0.07701894867616614</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>0.25269</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01021416019648314</v>
+        <v>0.3034391701221466</v>
       </c>
       <c r="D37" t="n">
         <v>0.01905841476595632</v>
       </c>
       <c r="E37" t="n">
-        <v>7.822083888964728e-05</v>
+        <v>0.08087241401695736</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>0.26192</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009306802414357662</v>
+        <v>0.3077074587345123</v>
       </c>
       <c r="D38" t="n">
         <v>0.01833416552662</v>
       </c>
       <c r="E38" t="n">
-        <v>8.149328476063478e-05</v>
+        <v>0.08373690282198083</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>0.27115</v>
       </c>
       <c r="C39" t="n">
-        <v>0.008625809103250504</v>
+        <v>0.3116484582424164</v>
       </c>
       <c r="D39" t="n">
         <v>0.01766175674741388</v>
       </c>
       <c r="E39" t="n">
-        <v>8.16483498280617e-05</v>
+        <v>0.08642818065591171</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>0.28038</v>
       </c>
       <c r="C40" t="n">
-        <v>0.007916620932519436</v>
+        <v>0.3186543881893158</v>
       </c>
       <c r="D40" t="n">
         <v>0.01703297431285461</v>
       </c>
       <c r="E40" t="n">
-        <v>8.310789895514855e-05</v>
+        <v>0.0909754773088355</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>0.28961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007221553009003401</v>
+        <v>0.3282584846019745</v>
       </c>
       <c r="D41" t="n">
         <v>0.0164305058220557</v>
       </c>
       <c r="E41" t="n">
-        <v>8.480481191302384e-05</v>
+        <v>0.09723668834996949</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>0.29945</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00654029892757535</v>
+        <v>0.3374060690402985</v>
       </c>
       <c r="D42" t="n">
         <v>0.01573081698321859</v>
       </c>
       <c r="E42" t="n">
-        <v>8.446562213110443e-05</v>
+        <v>0.1034749677859859</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>0.30928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005836663767695427</v>
+        <v>0.3422044813632965</v>
       </c>
       <c r="D43" t="n">
         <v>0.01503124143095429</v>
       </c>
       <c r="E43" t="n">
-        <v>8.454025840569882e-05</v>
+        <v>0.107042328927826</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>0.31911</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005175608210265636</v>
+        <v>0.3468956649303436</v>
       </c>
       <c r="D44" t="n">
         <v>0.01435199675106484</v>
       </c>
       <c r="E44" t="n">
-        <v>8.420610665171093e-05</v>
+        <v>0.1105852912461303</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>0.32894</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004437376745045185</v>
+        <v>0.3503000736236572</v>
       </c>
       <c r="D45" t="n">
         <v>0.01372373333200477</v>
       </c>
       <c r="E45" t="n">
-        <v>8.623641866016766e-05</v>
+        <v>0.1132836328441222</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>0.33877</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003681155852973461</v>
+        <v>0.3565165102481842</v>
       </c>
       <c r="D46" t="n">
         <v>0.01316267802790205</v>
       </c>
       <c r="E46" t="n">
-        <v>8.989926275366254e-05</v>
+        <v>0.1178918541003537</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>0.34919</v>
       </c>
       <c r="C47" t="n">
-        <v>0.002876064740121365</v>
+        <v>0.3634991943836212</v>
       </c>
       <c r="D47" t="n">
         <v>0.01259800172015396</v>
       </c>
       <c r="E47" t="n">
-        <v>9.451605864372531e-05</v>
+        <v>0.1231316470126438</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>0.35961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002114507369697094</v>
+        <v>0.3701142966747284</v>
       </c>
       <c r="D48" t="n">
         <v>0.01209225904637843</v>
       </c>
       <c r="E48" t="n">
-        <v>9.955552852151721e-05</v>
+        <v>0.1281797794275556</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>0.37004</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00141992699354887</v>
+        <v>0.3763921558856964</v>
       </c>
       <c r="D49" t="n">
         <v>0.01162567940867849</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0001041573823589241</v>
+        <v>0.1330545823614589</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>0.38046</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0007937392219901085</v>
+        <v>0.3878703713417053</v>
       </c>
       <c r="D50" t="n">
         <v>0.01119307155525773</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001081461129777454</v>
+        <v>0.1418857881744093</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>0.39088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002482263371348381</v>
+        <v>0.4018774330615997</v>
       </c>
       <c r="D51" t="n">
         <v>0.01078484525532466</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001110203382271557</v>
+        <v>0.152953412237009</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>0.40188</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0002911845222115517</v>
+        <v>0.416827529668808</v>
       </c>
       <c r="D52" t="n">
         <v>0.01034557013215292</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0001131405495771443</v>
+        <v>0.1652275834287589</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>0.41288</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0008080499246716499</v>
+        <v>0.4314425885677338</v>
       </c>
       <c r="D53" t="n">
         <v>0.009931360496498674</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0001153349361943418</v>
+        <v>0.1776717153901208</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>0.42388</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.001235668547451496</v>
+        <v>0.4432602524757385</v>
       </c>
       <c r="D54" t="n">
         <v>0.009551130316090312</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001163550297225068</v>
+        <v>0.1881036026444926</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>0.43488</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.001734633930027485</v>
+        <v>0.4542827010154724</v>
       </c>
       <c r="D55" t="n">
         <v>0.009217484435503598</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0001199488966926032</v>
+        <v>0.1980830470093746</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>0.44588</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.002220285125076771</v>
+        <v>0.4581528902053833</v>
       </c>
       <c r="D56" t="n">
         <v>0.008930504600148286</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0001243401114961847</v>
+        <v>0.2018007517288585</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>0.45743</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.002671067602932453</v>
+        <v>0.460197776556015</v>
       </c>
       <c r="D57" t="n">
         <v>0.008642215669082135</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0001279903783928451</v>
+        <v>0.2039024245679125</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>0.46898</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.003113959915935993</v>
+        <v>0.4626573324203491</v>
       </c>
       <c r="D58" t="n">
         <v>0.008348701113469824</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001313925978750588</v>
+        <v>0.20639633247993</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>0.48053</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.003488508053123951</v>
+        <v>0.4652469456195831</v>
       </c>
       <c r="D59" t="n">
         <v>0.008042294100334852</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0001329593983022102</v>
+        <v>0.2090360933708373</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>0.49208</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00389446783810854</v>
+        <v>0.466760516166687</v>
       </c>
       <c r="D60" t="n">
         <v>0.007726468833800537</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0001350461691325212</v>
+        <v>0.2107122566108107</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>0.50363</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.004292537458240986</v>
+        <v>0.4622454345226288</v>
       </c>
       <c r="D61" t="n">
         <v>0.007405495682209102</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0001368439793550686</v>
+        <v>0.2068793699643567</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>0.5157</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.004714366979897022</v>
+        <v>0.4532434046268463</v>
       </c>
       <c r="D62" t="n">
         <v>0.007072564193310123</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0001389317464819224</v>
+        <v>0.199068418853168</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>0.52777</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.005138491280376911</v>
+        <v>0.4435262382030487</v>
       </c>
       <c r="D63" t="n">
         <v>0.00674091320933669</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001411202510302277</v>
+        <v>0.1907814201298626</v>
       </c>
     </row>
     <row r="64">
@@ -1518,13 +1518,13 @@
         <v>0.53984</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.005518053658306599</v>
+        <v>0.431751161813736</v>
       </c>
       <c r="D64" t="n">
         <v>0.006417462197855993</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0001424565387527087</v>
+        <v>0.1809087560289316</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1535,13 @@
         <v>0.55191</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.00593112874776125</v>
+        <v>0.4217165410518646</v>
       </c>
       <c r="D65" t="n">
         <v>0.006107678664090732</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0001449328838996622</v>
+        <v>0.1727307264952596</v>
       </c>
     </row>
     <row r="66">
@@ -1552,13 +1552,13 @@
         <v>0.56398</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.006257263012230396</v>
+        <v>0.4117186963558197</v>
       </c>
       <c r="D66" t="n">
         <v>0.005814615892772368</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0001457302602970508</v>
+        <v>0.164758122536552</v>
       </c>
     </row>
     <row r="67">
@@ -1569,13 +1569,13 @@
         <v>0.57652</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.006598790176212788</v>
+        <v>0.4004302322864532</v>
       </c>
       <c r="D67" t="n">
         <v>0.0055114694491683</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0001466583881941353</v>
+        <v>0.1559608292409317</v>
       </c>
     </row>
     <row r="68">
@@ -1586,13 +1586,13 @@
         <v>0.58906</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.006938253529369831</v>
+        <v>0.3888720571994781</v>
       </c>
       <c r="D68" t="n">
         <v>0.005231351025806199</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0001480992750293612</v>
+        <v>0.1471801914334337</v>
       </c>
     </row>
     <row r="69">
@@ -1603,13 +1603,13 @@
         <v>0.6016100000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.007250410504639149</v>
+        <v>0.3762376010417938</v>
       </c>
       <c r="D69" t="n">
         <v>0.004966909049659527</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001492628970918488</v>
+        <v>0.1378419267323183</v>
       </c>
     </row>
     <row r="70">
@@ -1620,13 +1620,13 @@
         <v>0.61415</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.007589575834572315</v>
+        <v>0.3652254939079285</v>
       </c>
       <c r="D70" t="n">
         <v>0.004713889965087027</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001513752706833871</v>
+        <v>0.1299686165774402</v>
       </c>
     </row>
     <row r="71">
@@ -1637,13 +1637,13 @@
         <v>0.62669</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.007924978621304035</v>
+        <v>0.354499340057373</v>
       </c>
       <c r="D71" t="n">
         <v>0.004464704382695131</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001535042449395858</v>
+        <v>0.1225242461719045</v>
       </c>
     </row>
     <row r="72">
@@ -1654,13 +1654,13 @@
         <v>0.63966</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.00824845302850008</v>
+        <v>0.3434261977672577</v>
       </c>
       <c r="D72" t="n">
         <v>0.004206465599486074</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001551249980297565</v>
+        <v>0.1150700266919747</v>
       </c>
     </row>
     <row r="73">
@@ -1671,13 +1671,13 @@
         <v>0.65262</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.008543496020138264</v>
+        <v>0.3313496708869934</v>
       </c>
       <c r="D73" t="n">
         <v>0.003950116415473106</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0001560903516912631</v>
+        <v>0.10719046826815</v>
       </c>
     </row>
     <row r="74">
@@ -1688,13 +1688,13 @@
         <v>0.6655800000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.008800958283245564</v>
+        <v>0.318680465221405</v>
       </c>
       <c r="D74" t="n">
         <v>0.003696352135299198</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001561827676974675</v>
+        <v>0.09921499149664072</v>
       </c>
     </row>
     <row r="75">
@@ -1705,13 +1705,13 @@
         <v>0.67855</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.009084139950573444</v>
+        <v>0.305327832698822</v>
       </c>
       <c r="D75" t="n">
         <v>0.003449397849606407</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0001570895697885372</v>
+        <v>0.09113058942701212</v>
       </c>
     </row>
     <row r="76">
@@ -1722,13 +1722,13 @@
         <v>0.6915100000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.009382207877933979</v>
+        <v>0.2933527231216431</v>
       </c>
       <c r="D76" t="n">
         <v>0.003211820379634865</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0001586095477524426</v>
+        <v>0.08418174344394747</v>
       </c>
     </row>
     <row r="77">
@@ -1739,13 +1739,13 @@
         <v>0.7048300000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.009685059078037739</v>
+        <v>0.2829230129718781</v>
       </c>
       <c r="D77" t="n">
         <v>0.002976724668475933</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0001603207676434778</v>
+        <v>0.07836992433485154</v>
       </c>
     </row>
     <row r="78">
@@ -1756,13 +1756,13 @@
         <v>0.71816</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.009930049069225788</v>
+        <v>0.2722308337688446</v>
       </c>
       <c r="D78" t="n">
         <v>0.00274985470137797</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0001607799596317714</v>
+        <v>0.07261999807916041</v>
       </c>
     </row>
     <row r="79">
@@ -1773,13 +1773,13 @@
         <v>0.73148</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.01011468935757875</v>
+        <v>0.2616042792797089</v>
       </c>
       <c r="D79" t="n">
         <v>0.002531762765598264</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0001599327513038085</v>
+        <v>0.06711856881295412</v>
       </c>
     </row>
     <row r="80">
@@ -1790,13 +1790,13 @@
         <v>0.7448</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.01032156217843294</v>
+        <v>0.2509475946426392</v>
       </c>
       <c r="D80" t="n">
         <v>0.00232400661790889</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0001599104101830142</v>
+        <v>0.06181368852229081</v>
       </c>
     </row>
     <row r="81">
@@ -1807,13 +1807,13 @@
         <v>0.75812</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01052901614457369</v>
+        <v>0.2404986023902893</v>
       </c>
       <c r="D81" t="n">
         <v>0.002127162796568808</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0001601788653902188</v>
+        <v>0.05682094321398275</v>
       </c>
     </row>
     <row r="82">
@@ -1824,13 +1824,13 @@
         <v>0.77173</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0107629494741559</v>
+        <v>0.2298896610736847</v>
       </c>
       <c r="D82" t="n">
         <v>0.001930736590671328</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000161129665912389</v>
+        <v>0.05196527125145219</v>
       </c>
     </row>
     <row r="83">
@@ -1841,13 +1841,13 @@
         <v>0.7853399999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.01103678811341524</v>
+        <v>0.2192035764455795</v>
       </c>
       <c r="D83" t="n">
         <v>0.001737202160718254</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0001631748275236572</v>
+        <v>0.04729162394460337</v>
       </c>
     </row>
     <row r="84">
@@ -1858,251 +1858,13 @@
         <v>0.79895</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01162618864327669</v>
+        <v>0.2105965316295624</v>
       </c>
       <c r="D84" t="n">
         <v>0.001549327833389645</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0001735942344269061</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.8125600000000001</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.01227495539933443</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.001370183102412766</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0001861898047318637</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.8261700000000001</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.0130745517089963</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.001202128168559949</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.0002038235883262194</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.83999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.01385486591607332</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.001036063147463585</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.0002217397683752882</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.8538100000000001</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.01425458956509829</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.0008821002647240333</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.0002291193790042464</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.8676299999999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-0.01450086105614901</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.0007391356030791617</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.0002322574981732857</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.88145</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-0.01479550171643496</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0006068020083702756</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.0002372309600311491</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.8952700000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-0.01513958442956209</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.0004847330793965858</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0002441192976207527</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.90922</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.01551537681370974</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.0003716148789618446</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.0002523965050430158</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.92317</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-0.01591639593243599</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.0002723159506302419</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.0002620743924329298</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.9371200000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-0.01619549468159676</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.0001867843807763861</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0002683790672774694</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.9510700000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.01657502725720406</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.0001157746405203061</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.0002785828679890791</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.9650200000000001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-0.01703288033604622</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6.027862821974349e-05</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.0002921760833776658</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.97901</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-0.01755224540829659</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.134193965439583e-05</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.0003088309722760628</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-0.01793024688959122</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.142486508902294e-06</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.0003215347249573162</v>
+        <v>0.04370073341499858</v>
       </c>
     </row>
   </sheetData>
